--- a/biology/Zoologie/Ischyropsalis_adamii/Ischyropsalis_adamii.xlsx
+++ b/biology/Zoologie/Ischyropsalis_adamii/Ischyropsalis_adamii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis adamii est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Italie[1]. Elle se rencontre dans les Apennins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Italie. Elle se rencontre dans les Apennins.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle décrite par Roewer en 1950 mesure 7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle décrite par Roewer en 1950 mesure 7 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Canestrini en 1873.
-Ischyropsalis apuanus[3], Ischyropsalis amseli[2] et Ischyropsalis kratochvili[2] ont été placées en synonymie par Martens en 1969[1].
-Ischyropsalis apuanus nanus[4] a été placée en synonymie par Schönhofer en 2013[5].
+Ischyropsalis apuanus, Ischyropsalis amseli et Ischyropsalis kratochvili ont été placées en synonymie par Martens en 1969.
+Ischyropsalis apuanus nanus a été placée en synonymie par Schönhofer en 2013.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giovanni Battista Adami[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giovanni Battista Adami.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Canestrini, 1873 : « Nuove specie Italiane di Arachnidi. » Atti della Società Veneto-Trentina di Scienze Naturali, vol. 2, p. 45–52.</t>
         </is>
